--- a/biology/Zoologie/Baiami_torbayensis/Baiami_torbayensis.xlsx
+++ b/biology/Zoologie/Baiami_torbayensis/Baiami_torbayensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baiami torbayensis est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baiami torbayensis est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Great Southern en Australie-Occidentale[1],[2]. Elle se rencontre vers Torbay et dans le parc national Two Peoples Bay.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Great Southern en Australie-Occidentale,. Elle se rencontre vers Torbay et dans le parc national Two Peoples Bay.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 5,17 mm de long sur 3,37 mm de large, son abdomen 6,70 mm de long. La carapace du mâle paratype mesure 4,59 mm de long sur 3,31 mm de large, son abdomen 4,30 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 5,17 mm de long sur 3,37 mm de large, son abdomen 6,70 mm de long. La carapace du mâle paratype mesure 4,59 mm de long sur 3,31 mm de large, son abdomen 4,30 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Gray en 1982.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de torbay et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Torbay.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1982 : « A revision of the spider genus Baiami Lehtinen (Araneae, Amaurobioidea). » Records of the Australian Museum, vol. 33, p. 779-802 (texte intégral).</t>
         </is>
